--- a/data/data_cleaning/Brumberg_BCCA_revisions_costa_recode.xlsx
+++ b/data/data_cleaning/Brumberg_BCCA_revisions_costa_recode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lade8828/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\GitHub\BCCAch7\data\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F73BCA5F-6948-5445-98C4-0A1AE75383EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342F108-B481-4092-A700-0D65CDBAD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17940" xr2:uid="{287F872C-E026-F34C-9B25-F2439A05DFA8}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{287F872C-E026-F34C-9B25-F2439A05DFA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
   <si>
     <t>Yes</t>
   </si>
@@ -575,6 +575,12 @@
 Further understand the compound impact of climate change, land use changes and urban development on the hydrological system, and on the associated management, adaptation, mitigation options.; Better characterize hydraulic systems and improve observational data (More data, long-term monitoring) ; 
 Further understand climate change impact on water quality (field and modelling) ;
 Develop practical models to support implementation and climate change adaptation</t>
+  </si>
+  <si>
+    <t>ID_DOI_by_FlowEntry</t>
+  </si>
+  <si>
+    <t>ID_DOI_by_Flow</t>
   </si>
 </sst>
 </file>
@@ -950,15 +956,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8183EE3-ECF6-A14B-85E7-F81342B03AA6}">
-  <dimension ref="A1:EQ3"/>
+  <dimension ref="A1:ES3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="BW3" workbookViewId="0">
+      <selection activeCell="CT4" sqref="CT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:147" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:149" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1251,157 +1257,163 @@
         <v>101</v>
       </c>
       <c r="CT1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CV1" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>125</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>126</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" t="s">
         <v>127</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DV1" t="s">
         <v>128</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DW1" t="s">
         <v>129</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" t="s">
         <v>130</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" t="s">
         <v>131</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DZ1" t="s">
         <v>132</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EA1" t="s">
         <v>133</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" t="s">
         <v>134</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" t="s">
         <v>135</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" t="s">
         <v>136</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EE1" t="s">
         <v>137</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EF1" t="s">
         <v>138</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EG1" t="s">
         <v>139</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EH1" t="s">
         <v>140</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EI1" t="s">
         <v>141</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EJ1" t="s">
         <v>142</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EK1" t="s">
         <v>143</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EL1" t="s">
         <v>144</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EM1" t="s">
         <v>145</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EN1" t="s">
         <v>146</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EO1" t="s">
         <v>147</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EP1" t="s">
         <v>148</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EQ1" t="s">
         <v>149</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ER1" t="s">
         <v>150</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ES1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:147" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:149" ht="408" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>41</v>
       </c>
@@ -1522,11 +1534,11 @@
       <c r="CS2">
         <v>1</v>
       </c>
-      <c r="CT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="b">
-        <v>1</v>
+      <c r="CT2">
+        <v>21</v>
+      </c>
+      <c r="CU2">
+        <v>21</v>
       </c>
       <c r="CV2" t="b">
         <v>0</v>
@@ -1538,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="CY2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ2" t="b">
         <v>0</v>
@@ -1672,8 +1684,14 @@
       <c r="EQ2" t="b">
         <v>0</v>
       </c>
+      <c r="ER2" t="b">
+        <v>0</v>
+      </c>
+      <c r="ES2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:147" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:149" ht="408" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>41</v>
       </c>
@@ -1788,11 +1806,11 @@
       <c r="CS3">
         <v>1</v>
       </c>
-      <c r="CT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="b">
-        <v>1</v>
+      <c r="CT3">
+        <v>21</v>
+      </c>
+      <c r="CU3">
+        <v>21</v>
       </c>
       <c r="CV3" t="b">
         <v>0</v>
@@ -1804,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="CY3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ3" t="b">
         <v>0</v>
@@ -1936,6 +1954,12 @@
         <v>0</v>
       </c>
       <c r="EQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="b">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/data_cleaning/Brumberg_BCCA_revisions_costa_recode.xlsx
+++ b/data/data_cleaning/Brumberg_BCCA_revisions_costa_recode.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\GitHub\BCCAch7\data\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/lade8828_colorado_edu/Documents/Documents/GitHub/BCCAch7/data/data_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F342F108-B481-4092-A700-0D65CDBAD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F342F108-B481-4092-A700-0D65CDBAD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12D1390-EAE0-5543-81E3-B4621052693D}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{287F872C-E026-F34C-9B25-F2439A05DFA8}"/>
+    <workbookView xWindow="-5120" yWindow="1920" windowWidth="30240" windowHeight="17800" xr2:uid="{287F872C-E026-F34C-9B25-F2439A05DFA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -587,10 +587,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,17 +621,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,13 +969,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8183EE3-ECF6-A14B-85E7-F81342B03AA6}">
   <dimension ref="A1:ES3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW3" workbookViewId="0">
-      <selection activeCell="CT4" sqref="CT4"/>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:149" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +1427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:149" ht="408" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:149" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>41</v>
       </c>
@@ -1426,7 +1440,7 @@
       <c r="D2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F2" t="s">
@@ -1691,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:149" ht="408" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:149" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>41</v>
       </c>
@@ -1964,6 +1978,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5D3231D3-A04D-834A-919D-2FFE7133BC03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>